--- a/app/config/tables/triagem/forms/triagem/triagem.xlsx
+++ b/app/config/tables/triagem/forms/triagem/triagem.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3442A5-590A-442F-B2DC-D95329CCA1D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED395E22-DB26-43CD-B5C3-2EF80DD0CCD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="4" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId5"/>
-    <sheet name="model" sheetId="6" r:id="rId6"/>
+    <sheet name="initial" sheetId="7" r:id="rId1"/>
+    <sheet name="settings" sheetId="1" r:id="rId2"/>
+    <sheet name="survey" sheetId="2" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="calculates" sheetId="4" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId6"/>
+    <sheet name="model" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="787">
   <si>
     <t>setting_name</t>
   </si>
@@ -2217,9 +2218,6 @@
     <t>saida</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>hos</t>
   </si>
   <si>
@@ -2265,21 +2263,9 @@
     <t>selected(data('vcartT'), 'NTS')</t>
   </si>
   <si>
-    <t>cam1i</t>
-  </si>
-  <si>
-    <t>cam1na</t>
-  </si>
-  <si>
     <t>saidana</t>
   </si>
   <si>
-    <t>sec1</t>
-  </si>
-  <si>
-    <t>cam1</t>
-  </si>
-  <si>
     <t>vcartR</t>
   </si>
   <si>
@@ -2364,18 +2350,12 @@
     <t>roundsdate</t>
   </si>
   <si>
-    <t>cam1in</t>
-  </si>
-  <si>
     <t>camq</t>
   </si>
   <si>
     <t>roundq</t>
   </si>
   <si>
-    <t>sec1in</t>
-  </si>
-  <si>
     <t>secq</t>
   </si>
   <si>
@@ -2397,12 +2377,6 @@
     <t>Child dead</t>
   </si>
   <si>
-    <t>sec1q</t>
-  </si>
-  <si>
-    <t>cam1q</t>
-  </si>
-  <si>
     <t>N - Disnotri</t>
   </si>
   <si>
@@ -2410,6 +2384,15 @@
   </si>
   <si>
     <t>NA - Don't know</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>finalize</t>
+  </si>
+  <si>
+    <t>vdcart</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2499,12 +2482,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2512,12 +2489,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,7 +2521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2569,12 +2540,10 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -2866,6 +2835,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD16E4C-075F-4439-B669-1972351DB147}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2980,13 +3000,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5233,7 +5253,7 @@
         <v>80</v>
       </c>
       <c r="F180" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G180" t="s">
         <v>85</v>
@@ -5247,7 +5267,7 @@
         <v>86</v>
       </c>
       <c r="C181" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q181" t="s">
         <v>686</v>
@@ -5274,7 +5294,7 @@
         <v>86</v>
       </c>
       <c r="C184" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q184" t="s">
         <v>687</v>
@@ -5312,7 +5332,7 @@
         <v>86</v>
       </c>
       <c r="C188" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q188" t="s">
         <v>687</v>
@@ -8161,7 +8181,7 @@
         <v>86</v>
       </c>
       <c r="C345" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q345" t="s">
         <v>701</v>
@@ -8767,7 +8787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D206"/>
   <sheetViews>
@@ -11275,38 +11295,38 @@
     </row>
     <row r="171" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11443,55 +11463,55 @@
     </row>
     <row r="185" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>645</v>
@@ -11502,196 +11522,196 @@
     </row>
     <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>756</v>
-      </c>
       <c r="C192" s="5" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B200" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="201" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B201" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B202" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B203" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B204" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -11700,7 +11720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4C4F0F-BFC8-4609-90AE-137765AD6084}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -11742,7 +11762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEB7104-0CF4-465A-808C-30895389A8B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -11790,12 +11810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12199,7 +12219,7 @@
         <v>702</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C36" s="12" t="b">
         <v>0</v>
@@ -12328,7 +12348,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>8</v>
@@ -12470,651 +12490,651 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="16" t="b">
+      <c r="C61" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="16" t="b">
+      <c r="C62" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="16" t="b">
+      <c r="C63" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="16" t="b">
+      <c r="C64" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="16" t="b">
+      <c r="C65" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="16" t="b">
+      <c r="C66" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="16" t="b">
+      <c r="C67" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C68" s="16" t="b">
+      <c r="C68" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="16" t="b">
+      <c r="C69" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C70" s="16" t="b">
+      <c r="C70" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="16" t="b">
+      <c r="C71" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="16" t="b">
+      <c r="C72" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="16" t="b">
+      <c r="C73" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C74" s="16" t="b">
+      <c r="C74" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="16" t="b">
+      <c r="C75" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="16" t="b">
+      <c r="C76" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="16" t="b">
+      <c r="C77" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C78" s="16" t="b">
+      <c r="C78" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="16" t="b">
+      <c r="C79" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C80" s="16" t="b">
+      <c r="C80" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="16" t="b">
+      <c r="C81" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="16" t="b">
+      <c r="C82" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="16" t="b">
+      <c r="C83" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="16" t="b">
+      <c r="C84" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="16" t="b">
+      <c r="C85" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="16" t="b">
+      <c r="C86" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="16" t="b">
+      <c r="C87" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="16" t="b">
+      <c r="C88" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C89" s="16" t="b">
+      <c r="C89" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="16" t="b">
+      <c r="C90" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C91" s="16" t="b">
+      <c r="C91" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="16" t="b">
+      <c r="C92" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="16" t="b">
+      <c r="C93" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C94" s="16" t="b">
+      <c r="C94" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="16" t="b">
+      <c r="C95" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="16" t="b">
+      <c r="C96" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="16" t="b">
+      <c r="C97" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="16" t="b">
+      <c r="C98" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="16" t="b">
+      <c r="C99" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C100" s="16" t="b">
+      <c r="C100" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="16" t="b">
+      <c r="C101" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C102" s="16" t="b">
+      <c r="C102" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C103" s="16" t="b">
+      <c r="C103" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C104" s="16" t="b">
+      <c r="C104" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="16" t="b">
+      <c r="C105" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="16" t="b">
+      <c r="C106" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C107" s="16" t="b">
+      <c r="C107" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C108" s="16" t="b">
+      <c r="C108" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="16" t="b">
+      <c r="C109" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C110" s="16" t="b">
+      <c r="C110" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C111" s="16" t="b">
+      <c r="C111" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C112" s="16" t="b">
+      <c r="C112" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C113" s="16" t="b">
+      <c r="C113" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C114" s="16" t="b">
+      <c r="C114" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="16" t="b">
+      <c r="C115" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C116" s="16" t="b">
+      <c r="C116" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="16" t="b">
+      <c r="C117" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C118" s="16" t="b">
+      <c r="C118" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="16" t="b">
+      <c r="C119" s="15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13152,151 +13172,151 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C123" s="19" t="b">
+      <c r="C123" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C124" s="19" t="b">
+      <c r="C124" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C125" s="19" t="b">
+      <c r="C125" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C126" s="19" t="b">
+      <c r="C126" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="21" t="s">
-        <v>748</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="21" t="b">
+      <c r="A127" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="B128" s="21" t="s">
+      <c r="A128" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="21" t="b">
+      <c r="C128" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="21" t="b">
+      <c r="C129" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C130" s="21" t="b">
+      <c r="C130" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
-        <v>739</v>
-      </c>
-      <c r="B131" s="21" t="s">
+      <c r="A131" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="B131" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="21" t="b">
+      <c r="C131" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="21" t="s">
-        <v>747</v>
-      </c>
-      <c r="B132" s="21" t="s">
+      <c r="A132" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C132" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>726</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
-        <v>749</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="C135" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>745</v>
+      <c r="A136" s="11" t="s">
+        <v>768</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>290</v>
@@ -13307,7 +13327,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>91</v>
@@ -13318,7 +13338,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>290</v>
@@ -13328,125 +13348,29 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>774</v>
+      <c r="A139" s="10" t="s">
+        <v>743</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="C139" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
-        <v>775</v>
+      <c r="A140" s="10" t="s">
+        <v>737</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="C140" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C141" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C142" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
-        <v>728</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C146" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" s="20" t="b">
-        <v>1</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/triagem/forms/triagem/triagem.xlsx
+++ b/app/config/tables/triagem/forms/triagem/triagem.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D4263-7050-4EE8-A133-BC781A412A3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA7DC38-4D6A-48D9-9FDD-A7F58D3F9A09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="830">
   <si>
     <t>setting_name</t>
   </si>
@@ -1339,24 +1339,15 @@
     <t>WO - Wolof</t>
   </si>
   <si>
-    <t>Do people from the project come by your village?</t>
-  </si>
-  <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
     <t>tab</t>
   </si>
   <si>
-    <t>select_one_inline</t>
-  </si>
-  <si>
     <t>bairro</t>
   </si>
   <si>
-    <t>Where do you live?</t>
-  </si>
-  <si>
     <t>Bandim II</t>
   </si>
   <si>
@@ -1450,9 +1441,6 @@
     <t>tabz99</t>
   </si>
   <si>
-    <t>Describe where you live</t>
-  </si>
-  <si>
     <t>Has no phone</t>
   </si>
   <si>
@@ -2522,6 +2510,18 @@
   </si>
   <si>
     <t>bloodNA</t>
+  </si>
+  <si>
+    <t>Description of where the child lives</t>
+  </si>
+  <si>
+    <t>Do people from the project come by the village?</t>
+  </si>
+  <si>
+    <t>maeq</t>
+  </si>
+  <si>
+    <t>exactdob2</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3047,7 +3047,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3153,7 +3153,7 @@
         <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,8 +3177,8 @@
   <dimension ref="A1:Q451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD389"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,13 +3240,13 @@
         <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>279</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>396</v>
@@ -3268,10 +3268,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3348,7 +3348,7 @@
         <v>283</v>
       </c>
       <c r="E9" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F9" t="s">
         <v>135</v>
@@ -3359,10 +3359,10 @@
         <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="Q10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,13 +3424,13 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G14" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H14" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="P14" t="s">
         <v>397</v>
@@ -3473,16 +3473,16 @@
         <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F19" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G19" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q19" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3492,13 +3492,13 @@
     </row>
     <row r="21" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q21" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3511,10 +3511,10 @@
         <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q23" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3522,13 +3522,13 @@
         <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Q24" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3536,7 +3536,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,10 +3573,10 @@
         <v>111</v>
       </c>
       <c r="L27" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Q27" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,10 +3589,10 @@
         <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q29" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,13 +3600,13 @@
         <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q30" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G31" t="s">
         <v>112</v>
@@ -3645,7 +3645,7 @@
         <v>113</v>
       </c>
       <c r="L33" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3658,10 +3658,10 @@
         <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q35" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3669,13 +3669,13 @@
         <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q36" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G37" t="s">
         <v>112</v>
@@ -3714,7 +3714,7 @@
         <v>114</v>
       </c>
       <c r="L39" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,10 +3757,10 @@
         <v>283</v>
       </c>
       <c r="E44" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F44" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3768,10 +3768,10 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q45" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3825,24 +3825,27 @@
         <v>412</v>
       </c>
       <c r="Q51" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>438</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G52" t="s">
-        <v>440</v>
+        <v>413</v>
+      </c>
+      <c r="H52" t="s">
+        <v>414</v>
       </c>
       <c r="Q52" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
@@ -3850,10 +3853,10 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q53" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
@@ -3861,10 +3864,10 @@
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G54" t="s">
         <v>402</v>
@@ -3884,7 +3887,7 @@
         <v>70</v>
       </c>
       <c r="L55" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -3897,10 +3900,10 @@
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q57" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -3908,10 +3911,10 @@
         <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G58" t="s">
         <v>402</v>
@@ -3931,7 +3934,7 @@
         <v>70</v>
       </c>
       <c r="L59" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
@@ -3944,10 +3947,10 @@
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q61" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
@@ -3955,10 +3958,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F62" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G62" t="s">
         <v>402</v>
@@ -3978,7 +3981,7 @@
         <v>70</v>
       </c>
       <c r="L63" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -3991,10 +3994,10 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q65" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
@@ -4002,10 +4005,10 @@
         <v>91</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F66" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G66" t="s">
         <v>402</v>
@@ -4025,7 +4028,7 @@
         <v>70</v>
       </c>
       <c r="L67" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
@@ -4038,10 +4041,10 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q69" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
@@ -4049,10 +4052,10 @@
         <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F70" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G70" t="s">
         <v>402</v>
@@ -4072,7 +4075,7 @@
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
@@ -4085,10 +4088,10 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q73" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
@@ -4096,10 +4099,10 @@
         <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G74" t="s">
         <v>402</v>
@@ -4119,7 +4122,7 @@
         <v>70</v>
       </c>
       <c r="L75" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
@@ -4132,10 +4135,10 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Q77" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
@@ -4143,10 +4146,10 @@
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G78" t="s">
-        <v>472</v>
+        <v>826</v>
       </c>
       <c r="P78" t="s">
         <v>397</v>
@@ -4160,7 +4163,7 @@
         <v>70</v>
       </c>
       <c r="L79" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
@@ -4173,10 +4176,10 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="Q81" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
@@ -4204,7 +4207,7 @@
         <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
@@ -4212,10 +4215,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="Q84" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
@@ -4239,10 +4242,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="Q87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
@@ -4250,16 +4253,16 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G88" t="s">
-        <v>472</v>
+        <v>826</v>
       </c>
       <c r="P88" t="s">
         <v>397</v>
       </c>
       <c r="Q88" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
@@ -4285,7 +4288,7 @@
         <v>415</v>
       </c>
       <c r="Q92" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
@@ -4296,21 +4299,21 @@
         <v>79</v>
       </c>
       <c r="F93" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G93" t="s">
-        <v>435</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C94" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Q94" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
@@ -4318,13 +4321,13 @@
         <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F95" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G95" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
@@ -4332,7 +4335,7 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G96" t="s">
         <v>413</v>
@@ -4349,10 +4352,10 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G97" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P97" t="s">
         <v>397</v>
@@ -4430,7 +4433,7 @@
         <v>409</v>
       </c>
       <c r="F106" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G106" t="s">
         <v>76</v>
@@ -4444,10 +4447,10 @@
         <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q107" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
@@ -4458,7 +4461,7 @@
         <v>410</v>
       </c>
       <c r="F108" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G108" t="s">
         <v>149</v>
@@ -4480,10 +4483,10 @@
         <v>86</v>
       </c>
       <c r="C110" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q110" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
@@ -4494,15 +4497,15 @@
         <v>75</v>
       </c>
       <c r="L111" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q112" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
@@ -4513,7 +4516,7 @@
         <v>75</v>
       </c>
       <c r="L113" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
@@ -4546,7 +4549,7 @@
         <v>151</v>
       </c>
       <c r="Q116" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
@@ -4593,7 +4596,7 @@
         <v>86</v>
       </c>
       <c r="C120" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
@@ -4601,10 +4604,10 @@
         <v>154</v>
       </c>
       <c r="F121" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="L121" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
@@ -4671,7 +4674,7 @@
         <v>21</v>
       </c>
       <c r="F129" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G129" t="s">
         <v>268</v>
@@ -4680,7 +4683,7 @@
         <v>264</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J129" t="s">
         <v>379</v>
@@ -4700,7 +4703,7 @@
         <v>284</v>
       </c>
       <c r="F130" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I130" s="3"/>
     </row>
@@ -4709,11 +4712,11 @@
         <v>86</v>
       </c>
       <c r="C131" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I131" s="3"/>
       <c r="Q131" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
@@ -4725,16 +4728,16 @@
       </c>
       <c r="I132" s="3"/>
       <c r="L132" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I133" s="3"/>
       <c r="Q133" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
@@ -4746,7 +4749,7 @@
       </c>
       <c r="I134" s="3"/>
       <c r="L134" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
@@ -4760,7 +4763,7 @@
         <v>21</v>
       </c>
       <c r="F136" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G136" t="s">
         <v>269</v>
@@ -4769,7 +4772,7 @@
         <v>244</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J136" t="s">
         <v>379</v>
@@ -4789,7 +4792,7 @@
         <v>284</v>
       </c>
       <c r="F137" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I137" s="3"/>
     </row>
@@ -4798,11 +4801,11 @@
         <v>86</v>
       </c>
       <c r="C138" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I138" s="3"/>
       <c r="Q138" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
@@ -4814,16 +4817,16 @@
       </c>
       <c r="I139" s="3"/>
       <c r="L139" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I140" s="3"/>
       <c r="Q140" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
@@ -4835,7 +4838,7 @@
       </c>
       <c r="I141" s="3"/>
       <c r="L141" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
@@ -4852,7 +4855,7 @@
         <v>404</v>
       </c>
       <c r="Q143" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
@@ -4860,7 +4863,7 @@
         <v>21</v>
       </c>
       <c r="F144" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G144" t="s">
         <v>270</v>
@@ -4869,7 +4872,7 @@
         <v>246</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J144" t="s">
         <v>379</v>
@@ -4889,7 +4892,7 @@
         <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I145" s="3"/>
     </row>
@@ -4898,11 +4901,11 @@
         <v>86</v>
       </c>
       <c r="C146" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I146" s="3"/>
       <c r="Q146" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
@@ -4910,20 +4913,20 @@
         <v>154</v>
       </c>
       <c r="F147" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I147" s="3"/>
       <c r="L147" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I148" s="3"/>
       <c r="Q148" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
@@ -4931,11 +4934,11 @@
         <v>154</v>
       </c>
       <c r="F149" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I149" s="3"/>
       <c r="L149" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
@@ -5007,7 +5010,7 @@
         <v>302</v>
       </c>
       <c r="Q157" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
@@ -5082,7 +5085,7 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="162" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5179,7 +5182,7 @@
         <v>86</v>
       </c>
       <c r="C166" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -5198,7 +5201,7 @@
         <v>154</v>
       </c>
       <c r="F167" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -5206,7 +5209,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -5264,7 +5267,7 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.25">
@@ -5348,7 +5351,7 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="175" spans="2:17" x14ac:dyDescent="0.25">
@@ -5445,7 +5448,7 @@
         <v>86</v>
       </c>
       <c r="C179" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -5464,7 +5467,7 @@
         <v>154</v>
       </c>
       <c r="F180" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -5472,7 +5475,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -5516,7 +5519,7 @@
         <v>80</v>
       </c>
       <c r="F184" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G184" t="s">
         <v>85</v>
@@ -5530,10 +5533,10 @@
         <v>86</v>
       </c>
       <c r="C185" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Q185" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
@@ -5552,7 +5555,7 @@
         <v>154</v>
       </c>
       <c r="F187" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -5560,7 +5563,7 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
@@ -5577,10 +5580,10 @@
         <v>86</v>
       </c>
       <c r="C189" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q189" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
@@ -5591,7 +5594,7 @@
         <v>79</v>
       </c>
       <c r="F190" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G190" t="s">
         <v>153</v>
@@ -5615,10 +5618,10 @@
         <v>86</v>
       </c>
       <c r="C193" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q193" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.25">
@@ -5631,10 +5634,10 @@
         <v>154</v>
       </c>
       <c r="F195" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L195" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
@@ -5642,7 +5645,7 @@
         <v>134</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>39</v>
@@ -5651,7 +5654,7 @@
         <v>257</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>127</v>
@@ -5693,7 +5696,7 @@
         <v>86</v>
       </c>
       <c r="C198" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -5707,7 +5710,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.25">
@@ -5723,7 +5726,7 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -5733,7 +5736,7 @@
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -5747,7 +5750,7 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.25">
@@ -5763,7 +5766,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -5793,7 +5796,7 @@
         <v>134</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>322</v>
@@ -5802,7 +5805,7 @@
         <v>323</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>127</v>
@@ -5836,7 +5839,7 @@
         <v>361</v>
       </c>
       <c r="Q205" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.25">
@@ -5844,14 +5847,14 @@
         <v>154</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -5880,7 +5883,7 @@
         <v>86</v>
       </c>
       <c r="C208" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -5893,7 +5896,7 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" spans="2:17" x14ac:dyDescent="0.25">
@@ -5908,7 +5911,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
@@ -5918,7 +5921,7 @@
     </row>
     <row r="210" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -5931,7 +5934,7 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.25">
@@ -5946,7 +5949,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -5997,7 +6000,7 @@
         <v>134</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>54</v>
@@ -6006,7 +6009,7 @@
         <v>258</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>127</v>
@@ -6048,7 +6051,7 @@
         <v>86</v>
       </c>
       <c r="C217" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -6062,7 +6065,7 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.25">
@@ -6078,7 +6081,7 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
@@ -6088,7 +6091,7 @@
     </row>
     <row r="219" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -6102,7 +6105,7 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.25">
@@ -6118,7 +6121,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -6148,7 +6151,7 @@
         <v>134</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>325</v>
@@ -6157,7 +6160,7 @@
         <v>326</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>362</v>
@@ -6191,7 +6194,7 @@
         <v>360</v>
       </c>
       <c r="Q224" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="225" spans="2:17" x14ac:dyDescent="0.25">
@@ -6199,14 +6202,14 @@
         <v>154</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -6235,7 +6238,7 @@
         <v>86</v>
       </c>
       <c r="C227" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -6248,7 +6251,7 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="228" spans="2:17" x14ac:dyDescent="0.25">
@@ -6263,7 +6266,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="229" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -6286,7 +6289,7 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="230" spans="2:17" x14ac:dyDescent="0.25">
@@ -6301,7 +6304,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -6331,7 +6334,7 @@
         <v>134</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>327</v>
@@ -6340,7 +6343,7 @@
         <v>328</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>127</v>
@@ -6373,7 +6376,7 @@
         <v>359</v>
       </c>
       <c r="Q234" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="235" spans="2:17" x14ac:dyDescent="0.25">
@@ -6381,14 +6384,14 @@
         <v>154</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -6417,7 +6420,7 @@
         <v>86</v>
       </c>
       <c r="C237" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -6430,7 +6433,7 @@
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="238" spans="2:17" x14ac:dyDescent="0.25">
@@ -6445,7 +6448,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -6455,7 +6458,7 @@
     </row>
     <row r="239" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -6468,7 +6471,7 @@
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="240" spans="2:17" x14ac:dyDescent="0.25">
@@ -6483,7 +6486,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -6513,7 +6516,7 @@
         <v>134</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>329</v>
@@ -6522,7 +6525,7 @@
         <v>330</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>127</v>
@@ -6555,7 +6558,7 @@
         <v>358</v>
       </c>
       <c r="Q244" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="245" spans="2:17" x14ac:dyDescent="0.25">
@@ -6563,14 +6566,14 @@
         <v>154</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
@@ -6599,7 +6602,7 @@
         <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -6612,7 +6615,7 @@
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="248" spans="2:17" x14ac:dyDescent="0.25">
@@ -6627,7 +6630,7 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
@@ -6637,7 +6640,7 @@
     </row>
     <row r="249" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -6650,7 +6653,7 @@
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="250" spans="2:17" x14ac:dyDescent="0.25">
@@ -6665,7 +6668,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
@@ -6705,7 +6708,7 @@
         <v>134</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>53</v>
@@ -6714,7 +6717,7 @@
         <v>259</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>128</v>
@@ -6756,7 +6759,7 @@
         <v>86</v>
       </c>
       <c r="C256" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -6770,7 +6773,7 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="257" spans="2:17" x14ac:dyDescent="0.25">
@@ -6786,7 +6789,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
@@ -6796,7 +6799,7 @@
     </row>
     <row r="258" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -6810,7 +6813,7 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259" spans="2:17" x14ac:dyDescent="0.25">
@@ -6826,7 +6829,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
@@ -6856,7 +6859,7 @@
         <v>134</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>341</v>
@@ -6865,7 +6868,7 @@
         <v>342</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>363</v>
@@ -6899,7 +6902,7 @@
         <v>357</v>
       </c>
       <c r="Q263" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="264" spans="2:17" x14ac:dyDescent="0.25">
@@ -6907,14 +6910,14 @@
         <v>154</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -6943,7 +6946,7 @@
         <v>86</v>
       </c>
       <c r="C266" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -6956,7 +6959,7 @@
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="267" spans="2:17" x14ac:dyDescent="0.25">
@@ -6971,7 +6974,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -6981,7 +6984,7 @@
     </row>
     <row r="268" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -6994,7 +6997,7 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="269" spans="2:17" x14ac:dyDescent="0.25">
@@ -7009,7 +7012,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -7039,7 +7042,7 @@
         <v>134</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>340</v>
@@ -7048,7 +7051,7 @@
         <v>339</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>364</v>
@@ -7081,7 +7084,7 @@
         <v>356</v>
       </c>
       <c r="Q273" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="274" spans="2:17" x14ac:dyDescent="0.25">
@@ -7089,14 +7092,14 @@
         <v>154</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -7125,7 +7128,7 @@
         <v>86</v>
       </c>
       <c r="C276" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -7138,7 +7141,7 @@
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="2:17" x14ac:dyDescent="0.25">
@@ -7153,7 +7156,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
@@ -7163,7 +7166,7 @@
     </row>
     <row r="278" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -7176,7 +7179,7 @@
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="279" spans="2:17" x14ac:dyDescent="0.25">
@@ -7191,7 +7194,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -7221,7 +7224,7 @@
         <v>134</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>337</v>
@@ -7230,7 +7233,7 @@
         <v>338</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>365</v>
@@ -7263,7 +7266,7 @@
         <v>355</v>
       </c>
       <c r="Q283" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="2:17" x14ac:dyDescent="0.25">
@@ -7271,14 +7274,14 @@
         <v>154</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
@@ -7307,7 +7310,7 @@
         <v>86</v>
       </c>
       <c r="C286" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -7320,7 +7323,7 @@
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="287" spans="2:17" x14ac:dyDescent="0.25">
@@ -7335,7 +7338,7 @@
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
       <c r="L287" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
@@ -7345,7 +7348,7 @@
     </row>
     <row r="288" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -7358,7 +7361,7 @@
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289" spans="2:17" x14ac:dyDescent="0.25">
@@ -7373,7 +7376,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
@@ -7413,7 +7416,7 @@
         <v>134</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>55</v>
@@ -7422,7 +7425,7 @@
         <v>260</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>129</v>
@@ -7464,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="C295" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -7478,7 +7481,7 @@
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="296" spans="2:17" x14ac:dyDescent="0.25">
@@ -7494,7 +7497,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
@@ -7504,7 +7507,7 @@
     </row>
     <row r="297" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -7518,7 +7521,7 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="298" spans="2:17" x14ac:dyDescent="0.25">
@@ -7534,7 +7537,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
@@ -7564,7 +7567,7 @@
         <v>134</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>343</v>
@@ -7573,7 +7576,7 @@
         <v>345</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>366</v>
@@ -7607,7 +7610,7 @@
         <v>354</v>
       </c>
       <c r="Q302" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="303" spans="2:17" x14ac:dyDescent="0.25">
@@ -7615,14 +7618,14 @@
         <v>154</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
@@ -7651,7 +7654,7 @@
         <v>86</v>
       </c>
       <c r="C305" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -7664,7 +7667,7 @@
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="306" spans="2:17" x14ac:dyDescent="0.25">
@@ -7679,7 +7682,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
@@ -7689,7 +7692,7 @@
     </row>
     <row r="307" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -7702,7 +7705,7 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="308" spans="2:17" x14ac:dyDescent="0.25">
@@ -7717,7 +7720,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
@@ -7747,7 +7750,7 @@
         <v>134</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>344</v>
@@ -7756,7 +7759,7 @@
         <v>346</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>367</v>
@@ -7789,7 +7792,7 @@
         <v>353</v>
       </c>
       <c r="Q312" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="313" spans="2:17" x14ac:dyDescent="0.25">
@@ -7797,14 +7800,14 @@
         <v>154</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
@@ -7833,7 +7836,7 @@
         <v>86</v>
       </c>
       <c r="C315" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -7846,7 +7849,7 @@
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="316" spans="2:17" x14ac:dyDescent="0.25">
@@ -7861,7 +7864,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
@@ -7871,7 +7874,7 @@
     </row>
     <row r="317" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -7884,7 +7887,7 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="318" spans="2:17" x14ac:dyDescent="0.25">
@@ -7899,7 +7902,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
@@ -7929,7 +7932,7 @@
         <v>134</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>58</v>
@@ -7938,7 +7941,7 @@
         <v>261</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>127</v>
@@ -7971,7 +7974,7 @@
         <v>352</v>
       </c>
       <c r="Q322" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="323" spans="2:17" x14ac:dyDescent="0.25">
@@ -7979,14 +7982,14 @@
         <v>154</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
@@ -8015,7 +8018,7 @@
         <v>86</v>
       </c>
       <c r="C325" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -8028,7 +8031,7 @@
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="326" spans="2:17" x14ac:dyDescent="0.25">
@@ -8043,7 +8046,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
@@ -8053,7 +8056,7 @@
     </row>
     <row r="327" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -8066,7 +8069,7 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="328" spans="2:17" x14ac:dyDescent="0.25">
@@ -8081,7 +8084,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
@@ -8121,7 +8124,7 @@
         <v>134</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>347</v>
@@ -8130,7 +8133,7 @@
         <v>348</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>127</v>
@@ -8172,7 +8175,7 @@
         <v>86</v>
       </c>
       <c r="C334" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -8186,7 +8189,7 @@
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335" spans="2:17" x14ac:dyDescent="0.25">
@@ -8202,7 +8205,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
@@ -8212,7 +8215,7 @@
     </row>
     <row r="336" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -8226,7 +8229,7 @@
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.25">
@@ -8242,7 +8245,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
@@ -8272,16 +8275,16 @@
         <v>134</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>127</v>
@@ -8314,7 +8317,7 @@
         <v>351</v>
       </c>
       <c r="Q341" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.25">
@@ -8322,14 +8325,14 @@
         <v>154</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
@@ -8358,7 +8361,7 @@
         <v>86</v>
       </c>
       <c r="C344" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -8371,7 +8374,7 @@
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.25">
@@ -8386,7 +8389,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
@@ -8396,7 +8399,7 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -8409,7 +8412,7 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.25">
@@ -8424,7 +8427,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
@@ -8475,15 +8478,15 @@
         <v>86</v>
       </c>
       <c r="C351" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q351" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B352" t="s">
         <v>19</v>
@@ -8494,10 +8497,10 @@
         <v>154</v>
       </c>
       <c r="F353" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L353" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="354" spans="2:12" x14ac:dyDescent="0.25">
@@ -8505,7 +8508,7 @@
         <v>9</v>
       </c>
       <c r="E354" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F354" t="s">
         <v>40</v>
@@ -8519,13 +8522,13 @@
         <v>9</v>
       </c>
       <c r="E355" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G355" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="356" spans="2:12" x14ac:dyDescent="0.25">
@@ -8543,13 +8546,13 @@
         <v>9</v>
       </c>
       <c r="E358" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F358" t="s">
         <v>47</v>
       </c>
       <c r="G358" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="359" spans="2:12" x14ac:dyDescent="0.25">
@@ -8557,13 +8560,13 @@
         <v>9</v>
       </c>
       <c r="E359" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F359" t="s">
         <v>48</v>
       </c>
       <c r="G359" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="2:12" x14ac:dyDescent="0.25">
@@ -8571,13 +8574,13 @@
         <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F360" t="s">
         <v>49</v>
       </c>
       <c r="G360" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="361" spans="2:12" x14ac:dyDescent="0.25">
@@ -8595,13 +8598,13 @@
         <v>9</v>
       </c>
       <c r="E363" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G363" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="364" spans="2:12" x14ac:dyDescent="0.25">
@@ -8609,13 +8612,13 @@
         <v>9</v>
       </c>
       <c r="E364" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F364" t="s">
         <v>45</v>
       </c>
       <c r="G364" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="2:12" x14ac:dyDescent="0.25">
@@ -8623,13 +8626,13 @@
         <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F365" t="s">
         <v>46</v>
       </c>
       <c r="G365" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="366" spans="2:12" x14ac:dyDescent="0.25">
@@ -8647,13 +8650,13 @@
         <v>9</v>
       </c>
       <c r="E368" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F368" t="s">
         <v>50</v>
       </c>
       <c r="G368" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.25">
@@ -8661,13 +8664,13 @@
         <v>9</v>
       </c>
       <c r="E369" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F369" t="s">
         <v>51</v>
       </c>
       <c r="G369" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.25">
@@ -8675,13 +8678,13 @@
         <v>9</v>
       </c>
       <c r="E370" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G370" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.25">
@@ -8699,13 +8702,13 @@
         <v>9</v>
       </c>
       <c r="E373" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G373" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.25">
@@ -8713,13 +8716,13 @@
         <v>9</v>
       </c>
       <c r="E374" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G374" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.25">
@@ -8737,13 +8740,13 @@
         <v>9</v>
       </c>
       <c r="E377" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G377" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.25">
@@ -8751,7 +8754,7 @@
         <v>9</v>
       </c>
       <c r="E378" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>59</v>
@@ -8765,13 +8768,13 @@
         <v>9</v>
       </c>
       <c r="E379" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G379" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.25">
@@ -8814,10 +8817,10 @@
         <v>108</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
@@ -8858,7 +8861,7 @@
         <v>154</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
@@ -8878,7 +8881,7 @@
         <v>86</v>
       </c>
       <c r="C386" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -8897,7 +8900,7 @@
         <v>154</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
@@ -8905,7 +8908,7 @@
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
       <c r="L387" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
@@ -9396,10 +9399,10 @@
         <v>80</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D15" s="7"/>
     </row>
@@ -9408,10 +9411,10 @@
         <v>80</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -10061,7 +10064,7 @@
         <v>182</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>188</v>
@@ -10075,10 +10078,10 @@
         <v>182</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D63" s="5"/>
     </row>
@@ -10087,10 +10090,10 @@
         <v>182</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D64" s="5"/>
     </row>
@@ -10103,7 +10106,7 @@
         <v>111111111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>371</v>
@@ -10118,13 +10121,13 @@
         <v>999999999</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>305</v>
@@ -10138,7 +10141,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>206</v>
@@ -10152,7 +10155,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>308</v>
@@ -10166,7 +10169,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>177</v>
@@ -10180,7 +10183,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>306</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>178</v>
@@ -10208,7 +10211,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>307</v>
@@ -10222,7 +10225,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>310</v>
@@ -10236,7 +10239,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>309</v>
@@ -10250,7 +10253,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>311</v>
@@ -10264,7 +10267,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>312</v>
@@ -10278,7 +10281,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>313</v>
@@ -10292,7 +10295,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>314</v>
@@ -10306,7 +10309,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>315</v>
@@ -10320,7 +10323,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>316</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>317</v>
@@ -10348,7 +10351,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>318</v>
@@ -10393,7 +10396,7 @@
         <v>336</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>188</v>
@@ -10407,10 +10410,10 @@
         <v>336</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D87" s="7"/>
     </row>
@@ -10419,10 +10422,10 @@
         <v>336</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D88" s="7"/>
     </row>
@@ -10445,7 +10448,7 @@
         <v>331</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>188</v>
@@ -10459,10 +10462,10 @@
         <v>331</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D91" s="5"/>
     </row>
@@ -10471,10 +10474,10 @@
         <v>331</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D92" s="5"/>
     </row>
@@ -10497,7 +10500,7 @@
         <v>332</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>188</v>
@@ -10511,10 +10514,10 @@
         <v>332</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D95" s="7"/>
     </row>
@@ -10523,10 +10526,10 @@
         <v>332</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D96" s="7"/>
     </row>
@@ -10549,7 +10552,7 @@
         <v>333</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>188</v>
@@ -10563,10 +10566,10 @@
         <v>333</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D99" s="5"/>
     </row>
@@ -10575,10 +10578,10 @@
         <v>333</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D100" s="5"/>
     </row>
@@ -10601,7 +10604,7 @@
         <v>349</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>188</v>
@@ -10615,10 +10618,10 @@
         <v>349</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D103" s="7"/>
     </row>
@@ -10627,16 +10630,16 @@
         <v>349</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -10651,97 +10654,97 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B106" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B107" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B108" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B109" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B110" s="7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B111" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>"999"</f>
@@ -10756,7 +10759,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B113" s="5" t="str">
         <f>"11"</f>
@@ -10773,7 +10776,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B114" s="5" t="str">
         <f>"12"</f>
@@ -10790,7 +10793,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B115" s="5" t="str">
         <f>"13"</f>
@@ -10807,7 +10810,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B116" s="5" t="str">
         <f>"14"</f>
@@ -10824,7 +10827,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B117" s="5" t="str">
         <f>"15"</f>
@@ -10841,7 +10844,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B118" s="5" t="str">
         <f>"16"</f>
@@ -10858,7 +10861,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B119" s="5" t="str">
         <f>"17"</f>
@@ -10875,7 +10878,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B120" s="5" t="str">
         <f>"18"</f>
@@ -10892,7 +10895,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B121" s="5" t="str">
         <f>"19"</f>
@@ -10909,7 +10912,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B122" s="5" t="str">
         <f>"999"</f>
@@ -10924,7 +10927,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>"21"</f>
@@ -10941,7 +10944,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>"22"</f>
@@ -10958,7 +10961,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>"23"</f>
@@ -10975,7 +10978,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B126" s="7" t="str">
         <f t="shared" ref="B126:D127" si="0">"24"</f>
@@ -10992,7 +10995,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B127" s="7" t="str">
         <f t="shared" si="0"/>
@@ -11009,7 +11012,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>"25"</f>
@@ -11026,7 +11029,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>"26"</f>
@@ -11043,7 +11046,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>"27"</f>
@@ -11060,7 +11063,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>"28"</f>
@@ -11077,7 +11080,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>"999"</f>
@@ -11092,7 +11095,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B133" s="5" t="str">
         <f>"31"</f>
@@ -11109,7 +11112,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B134" s="5" t="str">
         <f>"32"</f>
@@ -11126,7 +11129,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B135" s="5" t="str">
         <f>"33"</f>
@@ -11143,7 +11146,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B136" s="5" t="str">
         <f>"34"</f>
@@ -11160,7 +11163,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B137" s="5" t="str">
         <f>"35"</f>
@@ -11177,7 +11180,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B138" s="5" t="str">
         <f>"999"</f>
@@ -11192,7 +11195,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>"42"</f>
@@ -11209,7 +11212,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>"43"</f>
@@ -11226,7 +11229,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>"44"</f>
@@ -11243,7 +11246,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>"999"</f>
@@ -11258,7 +11261,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B143" s="5" t="str">
         <f>"71"</f>
@@ -11275,7 +11278,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B144" s="5" t="str">
         <f>"72"</f>
@@ -11292,7 +11295,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B145" s="5" t="str">
         <f>"73"</f>
@@ -11309,7 +11312,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B146" s="5" t="str">
         <f>"74"</f>
@@ -11326,7 +11329,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B147" s="5" t="str">
         <f>"75"</f>
@@ -11343,7 +11346,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B148" s="5" t="str">
         <f>"76"</f>
@@ -11360,7 +11363,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B149" s="5" t="str">
         <f>"77"</f>
@@ -11377,7 +11380,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B150" s="5" t="str">
         <f>"78"</f>
@@ -11394,7 +11397,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B151" s="5" t="str">
         <f>"79"</f>
@@ -11411,7 +11414,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B152" s="5" t="str">
         <f>"999"</f>
@@ -11426,7 +11429,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>"92"</f>
@@ -11443,7 +11446,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>"93"</f>
@@ -11460,7 +11463,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>"94"</f>
@@ -11477,7 +11480,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>"999"</f>
@@ -11492,160 +11495,160 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B157" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B158" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B159" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B160" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B162" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B163" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B164" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B165" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B166" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>188</v>
@@ -11656,25 +11659,25 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D169" s="7"/>
     </row>
@@ -11695,553 +11698,553 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D189" s="7"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -12256,119 +12259,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>147</v>
@@ -12382,32 +12385,32 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>432</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -12508,7 +12511,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -12518,10 +12521,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:XFD170"/>
+  <dimension ref="A1:XFD172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A163" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12540,7 +12543,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -12559,10 +12562,10 @@
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>438</v>
+        <v>91</v>
       </c>
       <c r="C3" s="12" t="b">
         <v>0</v>
@@ -12636,7 +12639,7 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>21</v>
@@ -29028,7 +29031,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -45520,7 +45523,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>8</v>
@@ -45531,7 +45534,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -45542,7 +45545,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -45718,7 +45721,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>91</v>
@@ -45729,7 +45732,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>8</v>
@@ -45762,7 +45765,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>21</v>
@@ -45784,7 +45787,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>8</v>
@@ -45795,7 +45798,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>9</v>
@@ -45828,7 +45831,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>21</v>
@@ -45861,7 +45864,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>9</v>
@@ -45883,7 +45886,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>8</v>
@@ -45894,7 +45897,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>8</v>
@@ -46048,7 +46051,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -46070,7 +46073,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>8</v>
@@ -46092,7 +46095,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>8</v>
@@ -46103,7 +46106,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>283</v>
@@ -46114,7 +46117,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>283</v>
@@ -46125,7 +46128,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>91</v>
@@ -46136,7 +46139,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>91</v>
@@ -46169,7 +46172,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>134</v>
@@ -46191,7 +46194,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>134</v>
@@ -46213,7 +46216,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>134</v>
@@ -46224,7 +46227,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>283</v>
@@ -46235,7 +46238,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>91</v>
@@ -46246,7 +46249,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>91</v>
@@ -46257,7 +46260,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>91</v>
@@ -46268,7 +46271,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>91</v>
@@ -46279,7 +46282,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>91</v>
@@ -46290,7 +46293,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>91</v>
@@ -46301,7 +46304,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>91</v>
@@ -46312,7 +46315,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>21</v>
@@ -46323,7 +46326,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>283</v>
@@ -46334,7 +46337,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>21</v>
@@ -46345,7 +46348,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>283</v>
@@ -46356,7 +46359,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>21</v>
@@ -46367,7 +46370,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>283</v>
@@ -46389,7 +46392,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>134</v>
@@ -46411,7 +46414,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>134</v>
@@ -46433,7 +46436,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>134</v>
@@ -46455,7 +46458,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>134</v>
@@ -46477,7 +46480,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>134</v>
@@ -46499,7 +46502,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>134</v>
@@ -46521,7 +46524,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>134</v>
@@ -46543,7 +46546,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>134</v>
@@ -46565,7 +46568,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>134</v>
@@ -46587,7 +46590,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>134</v>
@@ -46609,7 +46612,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>134</v>
@@ -46631,7 +46634,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>134</v>
@@ -46653,7 +46656,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>134</v>
@@ -46664,7 +46667,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>9</v>
@@ -46675,7 +46678,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>8</v>
@@ -46686,7 +46689,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>8</v>
@@ -46697,7 +46700,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>8</v>
@@ -46708,7 +46711,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>283</v>
@@ -46719,7 +46722,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>283</v>
@@ -46730,7 +46733,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>283</v>
@@ -46741,7 +46744,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="24" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>21</v>
@@ -46752,7 +46755,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B133" s="24" t="s">
         <v>8</v>
@@ -46763,7 +46766,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B134" s="24" t="s">
         <v>8</v>
@@ -46774,7 +46777,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B135" s="24" t="s">
         <v>9</v>
@@ -46785,7 +46788,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="24" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B136" s="24" t="s">
         <v>9</v>
@@ -46796,7 +46799,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B137" s="24" t="s">
         <v>9</v>
@@ -46807,7 +46810,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B138" s="25" t="s">
         <v>283</v>
@@ -46817,52 +46820,52 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>797</v>
-      </c>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="22" t="b">
+      <c r="C141" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="B140" s="22" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
-        <v>825</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="19" t="b">
+      <c r="C142" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>8</v>
@@ -46873,7 +46876,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>819</v>
+        <v>725</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>8</v>
@@ -46884,10 +46887,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C145" s="19" t="b">
         <v>0</v>
@@ -46895,10 +46898,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
-        <v>743</v>
+        <v>815</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C146" s="19" t="b">
         <v>0</v>
@@ -46906,7 +46909,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>21</v>
@@ -46917,7 +46920,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>21</v>
@@ -46928,10 +46931,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C149" s="19" t="b">
         <v>0</v>
@@ -46939,7 +46942,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>21</v>
@@ -46950,10 +46953,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C151" s="19" t="b">
         <v>0</v>
@@ -46961,7 +46964,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>21</v>
@@ -46972,10 +46975,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="C153" s="19" t="b">
         <v>0</v>
@@ -46983,10 +46986,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C154" s="19" t="b">
         <v>0</v>
@@ -46994,10 +46997,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C155" s="19" t="b">
         <v>0</v>
@@ -47005,10 +47008,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="C156" s="19" t="b">
         <v>0</v>
@@ -47016,40 +47019,40 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C157" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C158" s="10" t="b">
-        <v>1</v>
+      <c r="A158" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C158" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C159" s="10" t="b">
-        <v>1</v>
+      <c r="A159" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>820</v>
+        <v>727</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>283</v>
@@ -47060,7 +47063,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>283</v>
@@ -47070,19 +47073,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>809</v>
+      <c r="A162" s="11" t="s">
+        <v>816</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="C162" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>762</v>
+      <c r="A163" s="11" t="s">
+        <v>755</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>283</v>
@@ -47092,11 +47095,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
-        <v>758</v>
+      <c r="A164" s="10" t="s">
+        <v>805</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="C164" s="10" t="b">
         <v>1</v>
@@ -47104,7 +47107,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>283</v>
@@ -47114,8 +47117,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
-        <v>810</v>
+      <c r="A166" s="11" t="s">
+        <v>754</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>283</v>
@@ -47126,7 +47129,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>283</v>
@@ -47137,10 +47140,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="C168" s="10" t="b">
         <v>1</v>
@@ -47148,7 +47151,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>822</v>
+        <v>719</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>283</v>
@@ -47159,12 +47162,34 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="B170" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C170" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C170" s="10" t="b">
+      <c r="C171" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C172" s="10" t="b">
         <v>1</v>
       </c>
     </row>

--- a/app/config/tables/triagem/forms/triagem/triagem.xlsx
+++ b/app/config/tables/triagem/forms/triagem/triagem.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA7DC38-4D6A-48D9-9FDD-A7F58D3F9A09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4530B3C7-24CF-4C7E-BB17-798B8DEB9952}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -3061,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3112,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20191303</v>
+        <v>20190104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12523,7 +12523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:XFD172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
